--- a/team_specific_matrix/Abilene Christian_B.xlsx
+++ b/team_specific_matrix/Abilene Christian_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2175572519083969</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="C2">
-        <v>0.5038167938931297</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007633587786259542</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1488549618320611</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1221374045801527</v>
+        <v>0.1097560975609756</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02962962962962963</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01481481481481482</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7555555555555555</v>
+        <v>0.7784431137724551</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.1736526946107785</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6304347826086957</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3695652173913043</v>
+        <v>0.3620689655172414</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06578947368421052</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006578947368421052</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02631578947368421</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2631578947368421</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03947368421052631</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1776315789473684</v>
+        <v>0.1701030927835052</v>
       </c>
       <c r="R6">
-        <v>0.05263157894736842</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="S6">
-        <v>0.3684210526315789</v>
+        <v>0.3814432989690721</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09659090909090909</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02272727272727273</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07954545454545454</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1022727272727273</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02840909090909091</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2215909090909091</v>
+        <v>0.1972477064220184</v>
       </c>
       <c r="R7">
-        <v>0.05113636363636364</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="S7">
-        <v>0.3977272727272727</v>
+        <v>0.4036697247706422</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.108187134502924</v>
+        <v>0.1119047619047619</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02923976608187134</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04970760233918128</v>
+        <v>0.05476190476190476</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1169590643274854</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008771929824561403</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1549707602339181</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R8">
-        <v>0.0847953216374269</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S8">
-        <v>0.4473684210526316</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1368421052631579</v>
+        <v>0.1322314049586777</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04210526315789474</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07368421052631578</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08421052631578947</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2210526315789474</v>
+        <v>0.2148760330578512</v>
       </c>
       <c r="R9">
-        <v>0.06315789473684211</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="S9">
-        <v>0.3789473684210526</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1332633788037775</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02938090241343127</v>
+        <v>0.02789518174133559</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06820566631689402</v>
+        <v>0.0676246830092984</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1133263378803778</v>
+        <v>0.1158072696534235</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02413431269674711</v>
+        <v>0.02451394759087067</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2077649527806925</v>
+        <v>0.2054099746407439</v>
       </c>
       <c r="R10">
-        <v>0.06610703043022036</v>
+        <v>0.06931530008453085</v>
       </c>
       <c r="S10">
-        <v>0.3578174186778594</v>
+        <v>0.3575655114116653</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.150197628458498</v>
+        <v>0.1469648562300319</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08695652173913043</v>
+        <v>0.08306709265175719</v>
       </c>
       <c r="K11">
-        <v>0.1897233201581028</v>
+        <v>0.1821086261980831</v>
       </c>
       <c r="L11">
-        <v>0.5573122529644269</v>
+        <v>0.5718849840255591</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0158102766798419</v>
+        <v>0.01597444089456869</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8068965517241379</v>
+        <v>0.7978142076502732</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1724137931034483</v>
+        <v>0.1748633879781421</v>
       </c>
       <c r="K12">
-        <v>0.006896551724137931</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01379310344827586</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4883720930232558</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3953488372093023</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1162790697674419</v>
+        <v>0.1272727272727273</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0136986301369863</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2123287671232877</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I15">
-        <v>0.0958904109589041</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="J15">
-        <v>0.3424657534246575</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.06164383561643835</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0136986301369863</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0273972602739726</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2328767123287671</v>
+        <v>0.2311827956989247</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006134969325153374</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1717791411042945</v>
+        <v>0.1706161137440758</v>
       </c>
       <c r="I16">
-        <v>0.04294478527607362</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="J16">
-        <v>0.4785276073619632</v>
+        <v>0.4549763033175355</v>
       </c>
       <c r="K16">
-        <v>0.1226993865030675</v>
+        <v>0.1279620853080569</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0245398773006135</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="N16">
-        <v>0.006134969325153374</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="O16">
-        <v>0.049079754601227</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09815950920245399</v>
+        <v>0.1137440758293839</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02670623145400593</v>
+        <v>0.02147971360381861</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2047477744807122</v>
+        <v>0.1933174224343675</v>
       </c>
       <c r="I17">
-        <v>0.05044510385756677</v>
+        <v>0.05966587112171837</v>
       </c>
       <c r="J17">
-        <v>0.4362017804154303</v>
+        <v>0.4295942720763723</v>
       </c>
       <c r="K17">
-        <v>0.1127596439169139</v>
+        <v>0.1217183770883055</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01483679525222552</v>
+        <v>0.01909307875894988</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03560830860534125</v>
+        <v>0.03579952267303103</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1186943620178042</v>
+        <v>0.1193317422434367</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008771929824561403</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1491228070175439</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="I18">
-        <v>0.07017543859649122</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J18">
-        <v>0.4824561403508772</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="K18">
-        <v>0.09649122807017543</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02631578947368421</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04385964912280702</v>
+        <v>0.05</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1228070175438596</v>
+        <v>0.1357142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01931330472103004</v>
+        <v>0.01827676240208877</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.213519313304721</v>
+        <v>0.2149695387293299</v>
       </c>
       <c r="I19">
-        <v>0.0536480686695279</v>
+        <v>0.05395996518711924</v>
       </c>
       <c r="J19">
-        <v>0.3744635193133047</v>
+        <v>0.3803307223672759</v>
       </c>
       <c r="K19">
-        <v>0.1341201716738197</v>
+        <v>0.1279373368146214</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03218884120171674</v>
+        <v>0.03220191470844212</v>
       </c>
       <c r="N19">
-        <v>0.001072961373390558</v>
+        <v>0.0008703220191470844</v>
       </c>
       <c r="O19">
-        <v>0.06652360515021459</v>
+        <v>0.0670147954743255</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1051502145922747</v>
+        <v>0.1044386422976501</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Abilene Christian_B.xlsx
+++ b/team_specific_matrix/Abilene Christian_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2195121951219512</v>
+        <v>0.2161383285302594</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.5100864553314121</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01219512195121951</v>
+        <v>0.01152737752161383</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1585365853658537</v>
+        <v>0.1585014409221902</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1097560975609756</v>
+        <v>0.1037463976945245</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02395209580838323</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02395209580838323</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7784431137724551</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1736526946107785</v>
+        <v>0.1722222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6379310344827587</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3620689655172414</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06185567010309279</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0154639175257732</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03608247422680412</v>
+        <v>0.03791469194312796</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2577319587628866</v>
+        <v>0.2701421800947867</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03092783505154639</v>
+        <v>0.02843601895734597</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1701030927835052</v>
+        <v>0.1658767772511848</v>
       </c>
       <c r="R6">
-        <v>0.04639175257731959</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="S6">
-        <v>0.3814432989690721</v>
+        <v>0.3744075829383886</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1009174311926606</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02293577981651376</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07339449541284404</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1192660550458716</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03669724770642202</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1972477064220184</v>
+        <v>0.2016806722689076</v>
       </c>
       <c r="R7">
-        <v>0.04587155963302753</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="S7">
-        <v>0.4036697247706422</v>
+        <v>0.4033613445378151</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1119047619047619</v>
+        <v>0.1091703056768559</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02857142857142857</v>
+        <v>0.02838427947598253</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05476190476190476</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1071428571428571</v>
+        <v>0.1069868995633188</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01428571428571429</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1714285714285714</v>
+        <v>0.1746724890829694</v>
       </c>
       <c r="R8">
-        <v>0.08333333333333333</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="S8">
-        <v>0.4285714285714285</v>
+        <v>0.4235807860262009</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1322314049586777</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04958677685950413</v>
+        <v>0.05384615384615385</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08264462809917356</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08264462809917356</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008264462809917356</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2148760330578512</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="R9">
-        <v>0.06611570247933884</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="S9">
-        <v>0.3636363636363636</v>
+        <v>0.3692307692307693</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1318681318681319</v>
+        <v>0.1304693715194908</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02789518174133559</v>
+        <v>0.02784407319013524</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0676246830092984</v>
+        <v>0.066030230708035</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1158072696534235</v>
+        <v>0.1121718377088305</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02451394759087067</v>
+        <v>0.02386634844868735</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2054099746407439</v>
+        <v>0.2084327764518695</v>
       </c>
       <c r="R10">
-        <v>0.06931530008453085</v>
+        <v>0.06841686555290374</v>
       </c>
       <c r="S10">
-        <v>0.3575655114116653</v>
+        <v>0.3627684964200477</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1469648562300319</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08306709265175719</v>
+        <v>0.08579881656804733</v>
       </c>
       <c r="K11">
-        <v>0.1821086261980831</v>
+        <v>0.1804733727810651</v>
       </c>
       <c r="L11">
-        <v>0.5718849840255591</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01597444089456869</v>
+        <v>0.01479289940828402</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7978142076502732</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1748633879781421</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
-        <v>0.00546448087431694</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="L12">
-        <v>0.00546448087431694</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01639344262295082</v>
+        <v>0.01515151515151515</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5272727272727272</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3454545454545455</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1272727272727273</v>
+        <v>0.1186440677966102</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02688172043010753</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1935483870967742</v>
+        <v>0.2097560975609756</v>
       </c>
       <c r="I15">
-        <v>0.09139784946236559</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3073170731707317</v>
       </c>
       <c r="K15">
-        <v>0.07526881720430108</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01612903225806452</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03225806451612903</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2311827956989247</v>
+        <v>0.2390243902439024</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01421800947867299</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1706161137440758</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="I16">
-        <v>0.04739336492890995</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="J16">
-        <v>0.4549763033175355</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1279620853080569</v>
+        <v>0.12</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01895734597156398</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="N16">
-        <v>0.004739336492890996</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="O16">
-        <v>0.04739336492890995</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1137440758293839</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02147971360381861</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1933174224343675</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="I17">
-        <v>0.05966587112171837</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="J17">
-        <v>0.4295942720763723</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K17">
-        <v>0.1217183770883055</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01909307875894988</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03579952267303103</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1193317422434367</v>
+        <v>0.1184210526315789</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007142857142857143</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1642857142857143</v>
+        <v>0.16</v>
       </c>
       <c r="I18">
-        <v>0.05714285714285714</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J18">
-        <v>0.4571428571428571</v>
+        <v>0.46</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02857142857142857</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1357142857142857</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01827676240208877</v>
+        <v>0.01850362027353178</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2149695387293299</v>
+        <v>0.2115848753016895</v>
       </c>
       <c r="I19">
-        <v>0.05395996518711924</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="J19">
-        <v>0.3803307223672759</v>
+        <v>0.3773129525341914</v>
       </c>
       <c r="K19">
-        <v>0.1279373368146214</v>
+        <v>0.1311343523732904</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03220191470844212</v>
+        <v>0.03137570394207562</v>
       </c>
       <c r="N19">
-        <v>0.0008703220191470844</v>
+        <v>0.0008045052292839903</v>
       </c>
       <c r="O19">
-        <v>0.0670147954743255</v>
+        <v>0.06757843925985518</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1044386422976501</v>
+        <v>0.1086082059533387</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Abilene Christian_B.xlsx
+++ b/team_specific_matrix/Abilene Christian_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2161383285302594</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="C2">
-        <v>0.5100864553314121</v>
+        <v>0.5040650406504065</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01152737752161383</v>
+        <v>0.01084010840108401</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1585014409221902</v>
+        <v>0.1653116531165312</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1037463976945245</v>
+        <v>0.1002710027100271</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C3">
-        <v>0.02222222222222222</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02777777777777778</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7777777777777778</v>
+        <v>0.7724867724867724</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1722222222222222</v>
+        <v>0.1746031746031746</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6129032258064516</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3870967741935484</v>
+        <v>0.373134328358209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06161137440758294</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01421800947867299</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03791469194312796</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2701421800947867</v>
+        <v>0.2743362831858407</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02843601895734597</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1658767772511848</v>
+        <v>0.163716814159292</v>
       </c>
       <c r="R6">
-        <v>0.04739336492890995</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="S6">
-        <v>0.3744075829383886</v>
+        <v>0.3628318584070797</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1050420168067227</v>
+        <v>0.1004016064257028</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02100840336134454</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07142857142857142</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1134453781512605</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04201680672268908</v>
+        <v>0.04016064257028112</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2016806722689076</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="R7">
-        <v>0.04201680672268908</v>
+        <v>0.04016064257028112</v>
       </c>
       <c r="S7">
-        <v>0.4033613445378151</v>
+        <v>0.4216867469879518</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1091703056768559</v>
+        <v>0.1037924151696607</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02838427947598253</v>
+        <v>0.02794411177644711</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05676855895196507</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1069868995633188</v>
+        <v>0.1037924151696607</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01310043668122271</v>
+        <v>0.01397205588822355</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1746724890829694</v>
+        <v>0.1856287425149701</v>
       </c>
       <c r="R8">
-        <v>0.08733624454148471</v>
+        <v>0.08582834331337326</v>
       </c>
       <c r="S8">
-        <v>0.4235807860262009</v>
+        <v>0.4251497005988024</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1230769230769231</v>
+        <v>0.1214285714285714</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05384615384615385</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09230769230769231</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07692307692307693</v>
+        <v>0.07857142857142857</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.007692307692307693</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2153846153846154</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="R9">
-        <v>0.06153846153846154</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="S9">
-        <v>0.3692307692307693</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1304693715194908</v>
+        <v>0.1306607275426875</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02784407319013524</v>
+        <v>0.02821083890126206</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.066030230708035</v>
+        <v>0.066815144766147</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1121718377088305</v>
+        <v>0.1121009651076466</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02386634844868735</v>
+        <v>0.02301410541945063</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2084327764518695</v>
+        <v>0.2093541202672606</v>
       </c>
       <c r="R10">
-        <v>0.06841686555290374</v>
+        <v>0.06607275426874536</v>
       </c>
       <c r="S10">
-        <v>0.3627684964200477</v>
+        <v>0.3637713437268003</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1420118343195266</v>
+        <v>0.1432584269662921</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08579881656804733</v>
+        <v>0.08146067415730338</v>
       </c>
       <c r="K11">
-        <v>0.1804733727810651</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="L11">
-        <v>0.5769230769230769</v>
+        <v>0.5814606741573034</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01479289940828402</v>
+        <v>0.01404494382022472</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8080808080808081</v>
+        <v>0.8056872037914692</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1666666666666667</v>
+        <v>0.1706161137440758</v>
       </c>
       <c r="K12">
-        <v>0.005050505050505051</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="L12">
-        <v>0.005050505050505051</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01515151515151515</v>
+        <v>0.01421800947867299</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.559322033898305</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3220338983050847</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1186440677966102</v>
+        <v>0.1147540983606557</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02926829268292683</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2097560975609756</v>
+        <v>0.2242152466367713</v>
       </c>
       <c r="I15">
-        <v>0.09268292682926829</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="J15">
-        <v>0.3073170731707317</v>
+        <v>0.304932735426009</v>
       </c>
       <c r="K15">
-        <v>0.07804878048780488</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01463414634146342</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02926829268292683</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2390243902439024</v>
+        <v>0.2466367713004484</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02222222222222222</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1733333333333333</v>
+        <v>0.1784232365145228</v>
       </c>
       <c r="I16">
-        <v>0.04444444444444445</v>
+        <v>0.04149377593360996</v>
       </c>
       <c r="J16">
-        <v>0.4533333333333333</v>
+        <v>0.4522821576763486</v>
       </c>
       <c r="K16">
-        <v>0.12</v>
+        <v>0.1161825726141079</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01777777777777778</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="N16">
-        <v>0.004444444444444444</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="O16">
-        <v>0.04444444444444445</v>
+        <v>0.05394190871369295</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.12</v>
+        <v>0.1161825726141079</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02192982456140351</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2017543859649123</v>
+        <v>0.2044534412955465</v>
       </c>
       <c r="I17">
-        <v>0.05921052631578947</v>
+        <v>0.05870445344129555</v>
       </c>
       <c r="J17">
-        <v>0.4166666666666667</v>
+        <v>0.4170040485829959</v>
       </c>
       <c r="K17">
-        <v>0.1162280701754386</v>
+        <v>0.1214574898785425</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02192982456140351</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04385964912280702</v>
+        <v>0.04453441295546558</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1184210526315789</v>
+        <v>0.1133603238866397</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006666666666666667</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.16</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="I18">
-        <v>0.06666666666666667</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="J18">
-        <v>0.46</v>
+        <v>0.4620253164556962</v>
       </c>
       <c r="K18">
-        <v>0.09333333333333334</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02666666666666667</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05333333333333334</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1333333333333333</v>
+        <v>0.1329113924050633</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01850362027353178</v>
+        <v>0.01795063575168287</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2115848753016895</v>
+        <v>0.212415856394914</v>
       </c>
       <c r="I19">
-        <v>0.05309734513274336</v>
+        <v>0.05534779356768885</v>
       </c>
       <c r="J19">
-        <v>0.3773129525341914</v>
+        <v>0.3754674644727001</v>
       </c>
       <c r="K19">
-        <v>0.1311343523732904</v>
+        <v>0.1271503365744203</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03137570394207562</v>
+        <v>0.02991772625280479</v>
       </c>
       <c r="N19">
-        <v>0.0008045052292839903</v>
+        <v>0.0007479431563201197</v>
       </c>
       <c r="O19">
-        <v>0.06757843925985518</v>
+        <v>0.06955871353777113</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1086082059533387</v>
+        <v>0.1114435302916978</v>
       </c>
     </row>
   </sheetData>
